--- a/big/status.xlsx
+++ b/big/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3fc1c9379bbc09f/Documents/apps/github/resume/big/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EFD4622-9D5F-47F2-9051-FAB4A318AA63}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44915E16-CA26-4971-AB3A-3AC4D9C4D40F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Task name</t>
   </si>
@@ -53,15 +75,6 @@
     <t>Brief block text</t>
   </si>
   <si>
-    <t>APS Certificate</t>
-  </si>
-  <si>
-    <t>Applied and is going on</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
     <t>IELTS Academic</t>
   </si>
   <si>
@@ -71,36 +84,12 @@
     <t>Can't start</t>
   </si>
   <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>Expatrio</t>
-  </si>
-  <si>
     <t>Can start</t>
   </si>
   <si>
-    <t>What</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>happening</t>
-  </si>
-  <si>
-    <t>Oh</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -110,126 +99,113 @@
     <t>d</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
-    <t>google.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Maecenas porttitor congue massa. Fusce posuere, magna sed pulvinar ultricies, purus lectus malesuada libero, sit amet commodo magna eros quis urna.
-Nunc viverra imperdiet enim. Fusce est. Vivamus a tellus.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin pharetra nonummy pede. Mauris et orci.
-Aenean nec lorem. In porttitor. Donec laoreet nonummy augue.
-Suspendisse dui purus, scelerisque at, vulputate vitae, pretium mattis, nunc. Mauris eget neque at sem venenatis eleifend. Ut nonummy.
-Fusce aliquet pede non pede. Suspendisse dapibus lorem pellentesque magna. Integer nulla.
-Donec blandit feugiat ligula. Donec hendrerit, felis et imperdiet euismod, purus ipsum pretium metus, in lacinia nulla nisl eget sapien. Donec ut est in lectus consequat consequat.
-Etiam eget dui. Aliquam erat volutpat. Sed at lorem in nunc porta tristique.
-Proin nec augue. Quisque aliquam tempor magna. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas.
-Nunc ac magna. Maecenas odio dolor, vulputate vel, auctor ac, accumsan id, felis. Pellentesque cursus sagittis felis.
-Pellentesque porttitor, velit lacinia egestas auctor, diam eros tempus arcu, nec vulputate augue magna vel risus. Cras non magna vel ante adipiscing rhoncus. Vivamus a mi.
-Morbi neque. Aliquam erat volutpat. Integer ultrices lobortis eros.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin semper, ante vitae sollicitudin posuere, metus quam iaculis nibh, vitae scelerisque nunc massa eget pede. Sed velit urna, interdum vel, ultricies vel, faucibus at, quam.
-Donec elit est, consectetuer eget, consequat quis, tempus quis, wisi. In in nunc. Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos hymenaeos.
-Donec ullamcorper fringilla eros. Fusce in sapien eu purus dapibus commodo. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.
-Cras faucibus condimentum odio. Sed ac ligula. Aliquam at eros.
-Etiam at ligula et tellus ullamcorper ultrices. In fermentum, lorem non cursus porttitor, diam urna accumsan lacus, sed interdum wisi nibh nec nisl. Ut tincidunt volutpat urna.
-Mauris eleifend nulla eget mauris. Sed cursus quam id felis. Curabitur posuere quam vel nibh.
-Cras dapibus dapibus nisl. Vestibulum quis dolor a felis congue vehicula. Maecenas pede purus, tristique ac, tempus eget, egestas quis, mauris.
-Curabitur non eros. Nullam hendrerit bibendum justo. Fusce iaculis, est quis lacinia pretium, pede metus molestie lacus, at gravida wisi ante at libero.
-Quisque ornare placerat risus. Ut molestie magna at mi. Integer aliquet mauris et nibh.
-Ut mattis ligula posuere velit. Nunc sagittis. Curabitur varius fringilla nisl.
-Duis pretium mi euismod erat. Maecenas id augue. Nam vulputate.
-Duis a quam non neque lobortis malesuada. Praesent euismod. Donec nulla augue, venenatis scelerisque, dapibus a, consequat at, leo.
-Pellentesque libero lectus, tristique ac, consectetuer sit amet, imperdiet ut, justo. Sed aliquam odio vitae tortor. Proin hendrerit tempus arcu.
-In hac habitasse platea dictumst. Suspendisse potenti. Vivamus vitae massa adipiscing est lacinia sodales.
-Donec metus massa, mollis vel, tempus placerat, vestibulum condimentum, ligula. Nunc lacus metus, posuere eget, lacinia eu, varius quis, libero. Aliquam nonummy adipiscing augue.
-Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Maecenas porttitor congue massa. Fusce posuere, magna sed pulvinar ultricies, purus lectus malesuada libero, sit amet commodo magna eros quis urna.
-Nunc viverra imperdiet enim. Fusce est. Vivamus a tellus.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin pharetra nonummy pede. Mauris et orci.
-Aenean nec lorem. In porttitor. Donec laoreet nonummy augue.
-Suspendisse dui purus, scelerisque at, vulputate vitae, pretium mattis, nunc. Mauris eget neque at sem venenatis eleifend. Ut nonummy.
-Fusce aliquet pede non pede. Suspendisse dapibus lorem pellentesque magna. Integer nulla.
-Donec blandit feugiat ligula. Donec hendrerit, felis et imperdiet euismod, purus ipsum pretium metus, in lacinia nulla nisl eget sapien. Donec ut est in lectus consequat consequat.
-Etiam eget dui. Aliquam erat volutpat. Sed at lorem in nunc porta tristique.
-Proin nec augue. Quisque aliquam tempor magna. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas.
-Nunc ac magna. Maecenas odio dolor, vulputate vel, auctor ac, accumsan id, felis. Pellentesque cursus sagittis felis.
-Pellentesque porttitor, velit lacinia egestas auctor, diam eros tempus arcu, nec vulputate augue magna vel risus. Cras non magna vel ante adipiscing rhoncus. Vivamus a mi.
-Morbi neque. Aliquam erat volutpat. Integer ultrices lobortis eros.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin semper, ante vitae sollicitudin posuere, metus quam iaculis nibh, vitae scelerisque nunc massa eget pede. Sed velit urna, interdum vel, ultricies vel, faucibus at, quam.
-Donec elit est, consectetuer eget, consequat quis, tempus quis, wisi. In in nunc. Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos hymenaeos.
-Donec ullamcorper fringilla eros. Fusce in sapien eu purus dapibus commodo. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.
-Cras faucibus condimentum odio. Sed ac ligula. Aliquam at eros.
-Etiam at ligula et tellus ullamcorper ultrices. In fermentum, lorem non cursus porttitor, diam urna accumsan lacus, sed interdum wisi nibh nec nisl. Ut tincidunt volutpat urna.
-Mauris eleifend nulla eget mauris. Sed cursus quam id felis. Curabitur posuere quam vel nibh.
-Cras dapibus dapibus nisl. Vestibulum quis dolor a felis congue vehicula. Maecenas pede purus, tristique ac, tempus eget, egestas quis, mauris.
-Curabitur non eros. Nullam hendrerit bibendum justo. Fusce iaculis, est quis lacinia pretium, pede metus molestie lacus, at gravida wisi ante at libero.
-Quisque ornare placerat risus. Ut molestie magna at mi. Integer aliquet mauris et nibh.
-Ut mattis ligula posuere velit. Nunc sagittis. Curabitur varius fringilla nisl.
-Duis pretium mi euismod erat. Maecenas id augue. Nam vulputate.
-Duis a quam non neque lobortis malesuada. Praesent euismod. Donec nulla augue, venenatis scelerisque, dapibus a, consequat at, leo.
-Pellentesque libero lectus, tristique ac, consectetuer sit amet, imperdiet ut, justo. Sed aliquam odio vitae tortor. Proin hendrerit tempus arcu.
-In hac habitasse platea dictumst. Suspendisse potenti. Vivamus vitae massa adipiscing est lacinia sodales.
-Donec metus massa, mollis vel, tempus placerat, vestibulum condimentum, ligula. Nunc lacus metus, posuere eget, lacinia eu, varius quis, libero. Aliquam nonummy adipiscing augue.
-Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Maecenas porttitor congue massa. Fusce posuere, magna sed pulvinar ultricies, purus lectus malesuada libero, sit amet commodo magna eros quis urna.
-Nunc viverra imperdiet enim. Fusce est. Vivamus a tellus.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin pharetra nonummy pede. Mauris et orci.
-Aenean nec lorem. In porttitor. Donec laoreet nonummy augue.
-Suspendisse dui purus, scelerisque at, vulputate vitae, pretium mattis, nunc. Mauris eget neque at sem venenatis eleifend. Ut nonummy.
-Fusce aliquet pede non pede. Suspendisse dapibus lorem pellentesque magna. Integer nulla.
-Donec blandit feugiat ligula. Donec hendrerit, felis et imperdiet euismod, purus ipsum pretium metus, in lacinia nulla nisl eget sapien. Donec ut est in lectus consequat consequat.
-Etiam eget dui. Aliquam erat volutpat. Sed at lorem in nunc porta tristique.
-Proin nec augue. Quisque aliquam tempor magna. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas.
-Nunc ac magna. Maecenas odio dolor, vulputate vel, auctor ac, accumsan id, felis. Pellentesque cursus sagittis felis.
-Pellentesque porttitor, velit lacinia egestas auctor, diam eros tempus arcu, nec vulputate augue magna vel risus. Cras non magna vel ante adipiscing rhoncus. Vivamus a mi.
-Morbi neque. Aliquam erat volutpat. Integer ultrices lobortis eros.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin semper, ante vitae sollicitudin posuere, metus quam iaculis nibh, vitae scelerisque nunc massa eget pede. Sed velit urna, interdum vel, ultricies vel, faucibus at, quam.
-Donec elit est, consectetuer eget, consequat quis, tempus quis, wisi. In in nunc. Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos hymenaeos.
-Donec ullamcorper fringilla eros. Fusce in sapien eu purus dapibus commodo. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.
-Cras faucibus condimentum odio. Sed ac ligula. Aliquam at eros.
-Etiam at ligula et tellus ullamcorper ultrices. In fermentum, lorem non cursus porttitor, diam urna accumsan lacus, sed interdum wisi nibh nec nisl. Ut tincidunt volutpat urna.
-Mauris eleifend nulla eget mauris. Sed cursus quam id felis. Curabitur posuere quam vel nibh.
-Cras dapibus dapibus nisl. Vestibulum quis dolor a felis congue vehicula. Maecenas pede purus, tristique ac, tempus eget, egestas quis, mauris.
-Curabitur non eros. Nullam hendrerit bibendum justo. Fusce iaculis, est quis lacinia pretium, pede metus molestie lacus, at gravida wisi ante at libero.
-Quisque ornare placerat risus. Ut molestie magna at mi. Integer aliquet mauris et nibh.
-Ut mattis ligula posuere velit. Nunc sagittis. Curabitur varius fringilla nisl.
-Duis pretium mi euismod erat. Maecenas id augue. Nam vulputate.
-Duis a quam non neque lobortis malesuada. Praesent euismod. Donec nulla augue, venenatis scelerisque, dapibus a, consequat at, leo.
-Pellentesque libero lectus, tristique ac, consectetuer sit amet, imperdiet ut, justo. Sed aliquam odio vitae tortor. Proin hendrerit tempus arcu.
-In hac habitasse platea dictumst. Suspendisse potenti. Vivamus vitae massa adipiscing est lacinia sodales.
-Donec metus massa, mollis vel, tempus placerat, vestibulum condimentum, ligula. Nunc lacus metus, posuere eget, lacinia eu, varius quis, libero. Aliquam nonummy adipiscing augue.
-Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Maecenas porttitor congue massa. Fusce posuere, magna sed pulvinar ultricies, purus lectus malesuada libero, sit amet commodo magna eros quis urna.
-Nunc viverra imperdiet enim. Fusce est. Vivamus a tellus.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin pharetra nonummy pede. Mauris et orci.
-Aenean nec lorem. In porttitor. Donec laoreet nonummy augue.
-Suspendisse dui purus, scelerisque at, vulputate vitae, pretium mattis, nunc. Mauris eget neque at sem venenatis eleifend. Ut nonummy.
-Fusce aliquet pede non pede. Suspendisse dapibus lorem pellentesque magna. Integer nulla.
-Donec blandit feugiat ligula. Donec hendrerit, felis et imperdiet euismod, purus ipsum pretium metus, in lacinia nulla nisl eget sapien. Donec ut est in lectus consequat consequat.
-Etiam eget dui. Aliquam erat volutpat. Sed at lorem in nunc porta tristique.
-Proin nec augue. Quisque aliquam tempor magna. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas.
-Nunc ac magna. Maecenas odio dolor, vulputate vel, auctor ac, accumsan id, felis. Pellentesque cursus sagittis felis.
-Pellentesque porttitor, velit lacinia egestas auctor, diam eros tempus arcu, nec vulputate augue magna vel risus. Cras non magna vel ante adipiscing rhoncus. Vivamus a mi.
-Morbi neque. Aliquam erat volutpat. Integer ultrices lobortis eros.
-Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Proin semper, ante vitae sollicitudin posuere, metus quam iaculis nibh, vitae scelerisque nunc massa eget pede. Sed velit urna, interdum vel, ultricies vel, faucibus at, quam.
-Donec elit est, consectetuer eget, consequat quis, tempus quis, wisi. In in nunc. Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos hymenaeos.
-Donec ullamcorper fringilla eros. Fusce in sapien eu purus dapibus commodo. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.
-Cras faucibus condimentum odio. Sed ac ligula. Aliquam at eros.
-Etiam at ligula et tellus ullamcorper ultrices. In fermentum, lorem non cursus porttitor, diam urna accumsan lacus, sed interdum wisi nibh nec nisl. Ut tincidunt volutpat urna.
-Mauris eleifend nulla eget mauris. Sed cursus quam id felis. Curabitur posuere quam vel nibh.
-Cras dapibus dapibus nisl. Vestibulum quis dolor a felis congue vehicula. Maecenas pede purus, tristique ac, tempus eget, egestas quis, mauris.
-</t>
+    <t>GRE General</t>
+  </si>
+  <si>
+    <t>eTRF available in the shared OneDrive folder
+https://rahulnatha.com/big?view=onedrive (password shared on email)</t>
+  </si>
+  <si>
+    <t>University shortlisting</t>
+  </si>
+  <si>
+    <t>Akademische Prüfstelle (APS) Certificate</t>
+  </si>
+  <si>
+    <t>Europass CV</t>
+  </si>
+  <si>
+    <t>Statement of purpose / letter of intent / motivation letter</t>
+  </si>
+  <si>
+    <t>Letters of recommendation</t>
+  </si>
+  <si>
+    <t>uni assist e.V.</t>
+  </si>
+  <si>
+    <t>Program applications</t>
+  </si>
+  <si>
+    <t>Faster German A1 course</t>
+  </si>
+  <si>
+    <t>German language skill</t>
+  </si>
+  <si>
+    <t>Edu loan (ICICI, Credila, Prodigy)</t>
+  </si>
+  <si>
+    <t>Blocked account</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Vaccines</t>
+  </si>
+  <si>
+    <t>Travel insurance</t>
+  </si>
+  <si>
+    <t>Health insurance</t>
+  </si>
+  <si>
+    <t>Flights</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
+  </si>
+  <si>
+    <t>Scored 7.0 overall band with 6.5 in listening and 7.0 in all other sections. C1 level in CEFR.</t>
+  </si>
+  <si>
+    <t>Started and processing</t>
+  </si>
+  <si>
+    <t>Can't start, pending prerequisites</t>
+  </si>
+  <si>
+    <t>Scored 3 in AWA, 135 in verbal, 158 in quant</t>
+  </si>
+  <si>
+    <t>Score available in the shared OneDrive folder
+https://rahulnatha.com/big?view=onedrive (password shared on email)</t>
+  </si>
+  <si>
+    <t>Courier reached APS Delhi</t>
+  </si>
+  <si>
+    <t>Courier of my documents received at APS office in Delhi on Saturday, 21 June 2025
+All documents I shared with APS are available in the shared OneDrive folder
+https://rahulnatha.com/big?view=onedrive (password shared on email)</t>
+  </si>
+  <si>
+    <t>Scholarship applications (not interested if makes problems with visa extentions later on)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,14 +228,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -273,6 +255,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,24 +578,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBA9940-D2A4-4BCE-8AC4-F9C7FE04C81D}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="180.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -623,31 +609,33 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A22">_xlfn.SEQUENCE(COUNTA(B:B)-1,1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2:E22">_xlfn.ANCHORARRAY(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -655,76 +643,346 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/big/status.xlsx
+++ b/big/status.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3fc1c9379bbc09f/Documents/apps/github/resume/big/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="355" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFC67D0-E83E-4BC9-9C88-5B39771B7451}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E6ED13-890C-41A5-A4CF-6DDE58CEB4D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -123,12 +124,6 @@
     <t>Europass CV</t>
   </si>
   <si>
-    <t>Statement of purpose / letter of intent / motivation letter</t>
-  </si>
-  <si>
-    <t>Letters of recommendation</t>
-  </si>
-  <si>
     <t>uni assist e.V.</t>
   </si>
   <si>
@@ -210,28 +205,98 @@
     <t>Travel insurance (flight boarding to one day before university enrollment)</t>
   </si>
   <si>
-    <t>Want to bring as less luggage as possible. Not a fan of food, I don't eat foods like pickels in India also. I am a non-vegetarian who prefers chicken and fish (bone less only). All vegan foods are also fine. I am adaptable to food.</t>
-  </si>
-  <si>
-    <t>I can start taking all the required vaccines from Aug 1, 2025 to Jan 31, 2026. I have taken COVISHIELD 3 doses, and have this certificate included in the OneDrive folder.</t>
-  </si>
-  <si>
-    <t>Score available in the shared OneDrive folder.</t>
-  </si>
-  <si>
-    <t>eTRF available in the shared OneDrive folder.</t>
-  </si>
-  <si>
-    <t>Courier of my documents received at APS office in Delhi on Saturday, 21 June 2025. All documents I shared with APS are available in the shared OneDrive folder.</t>
-  </si>
-  <si>
-    <t>Drafts that I made are available in the shared OneDrive folder.</t>
-  </si>
-  <si>
-    <t>I prefer to stay as near as possible to both the cities and the university. Aim is to not move place to place every now and then even if internship opportunities come provided that I do not miss any work opportunities.</t>
-  </si>
-  <si>
-    <t>Available on the OneDrive folder.</t>
+    <t>1.	MMR (Measles, Mumps, and Rubella)
+2.	TDAP (Tetanus, Diphtheria, Pertussis)
+3.	Varicella (Chickenpox Vaccine)
+4.	Meningitis
+5.	Hepatitis
+6.	Tuberculosis Test</t>
+  </si>
+  <si>
+    <t>CGPA: 8.91 (8.91%); Class: First Class with Distinction; Awarded: 1 Gold Medal for academic performance in 1st and 2nd semesters;
+Scanned copies available on the OneDrive folder. No document is issued via DigiLocker, every documant in original is physically available with me.
+#Bachelor #Degree #Education #BTech #CGPA</t>
+  </si>
+  <si>
+    <t>Letters of recommendation (LOR)</t>
+  </si>
+  <si>
+    <t>Statement of purpose / letter of intent / motivation letter (SOP)</t>
+  </si>
+  <si>
+    <t>Started and processing, might complete by Aug 2, 2025</t>
+  </si>
+  <si>
+    <t>Courier of my documents received at APS office in Delhi on Saturday, 21 June 2025. 
+All documents I shared with APS are available in the shared OneDrive folder.
+#APS #Certificate</t>
+  </si>
+  <si>
+    <t>Starting from level 0 from July 1, 2025, with Faster German A1 language course at BiG academy.
+Aiming to reach B1 level by Jan 31, 2025.
+#German #Language</t>
+  </si>
+  <si>
+    <t>Drafts that I made are available in the shared OneDrive folder.
+Caution ⚠️: I have used ChatGPT to rephrase the initial SOP I made. I know this is highly dangerous. I will redraft my SOP without using ChatGPT and any other AI from now on.
+#SOP #Motivation #Intent</t>
+  </si>
+  <si>
+    <t>I can start taking all the required vaccines from Aug 1, 2025 to Jan 31, 2026. I have taken COVISHIELD 3 doses, and have this certificate included in the OneDrive folder.
+Planning to take: 
+1.	MMR (Measles, Mumps, and Rubella)
+2.	TDAP (Tetanus, Diphtheria, Pertussis)
+3.	Varicella (Chickenpox Vaccine)
+4.	Meningitis
+5.	Hepatitis
+6.	Tuberculosis Test
+#Health #Immunisation #Vaccine #Prevention</t>
+  </si>
+  <si>
+    <t>Done with all the formalities related to request of LOR from college. Now, all that is pending is to submit a format and get signatures from professors at college.
+I can get two to three LORs from college, and one from my current workplace.
+#LOR</t>
+  </si>
+  <si>
+    <t>I have heard that taking government money to use for my edu, and living expenses states indirectly that I am not independent and my visa extensions might get cancelled. So I want to reply on my edu loan and earnings alone.
+#Scholarship #Risk</t>
+  </si>
+  <si>
+    <t>I need to be taking edu loan to cover for both my first and second year of education to be on a safer side, irrespective of the city, university and state rules. That is, 24 thousand EUR blocked account.</t>
+  </si>
+  <si>
+    <t>Thinking about Expatrio</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>I prefer to stay as near as possible to both the cities and the university. 
+Aim is to not move place to place every now and then even if internship opportunities come provided that I do not miss any work opportunities.</t>
+  </si>
+  <si>
+    <t>Want to bring as less luggage as possible. 
+Not a fan of food, I don't eat foods like pickels in India also. I am a non-vegetarian who prefers chicken and fish (bone less only). All vegan foods are also fine. I am adaptable to food.</t>
+  </si>
+  <si>
+    <t>High on safety, low on budget, and good for transporting all my luggage. I don't mind if I have to have a transit stop: layover or stopover.</t>
+  </si>
+  <si>
+    <t>Scored 7.0 overall band with 6.5 in listening and 7.0 in all other sections. C1 level in CEFR.
+I have not taken One Skill Retake (OSR) in any of the sections and the above scores are the original scores.
+eTRF available in the shared OneDrive folder.
+#English #Language</t>
+  </si>
+  <si>
+    <t>Score available in the shared OneDrive folder.
+Scored 3 in AWA, 135 in verbal, 158 in quant
+I won’t plan a retake unless we identify programs that require it or where a better score would clearly strengthen my chances.
+#GRE #Aptitude #Verbal #Quantitative #Analytical</t>
+  </si>
+  <si>
+    <t>Yes, working with computers (programming, designing, simulations, calculations) is perfectly fine for me. 
+I prefer to avoid testing-based, material-heavy, or hazardous work environments. 
+I’ll soon begin shortlisting courses accordingly and share a few examples as you suggested</t>
   </si>
 </sst>
 </file>
@@ -284,14 +349,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,19 +701,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBA9940-D2A4-4BCE-8AC4-F9C7FE04C81D}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="65" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="180.5546875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="180.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,8 +731,9 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+      <c r="F1" s="3" t="str" cm="1">
+        <f t="array" aca="1" ref="F1:F27" ca="1">INDIRECT("Sheet2!C1:C" &amp; COUNTA(B:B)-0)</f>
+        <v>Brief block text</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -682,196 +754,243 @@
         <f t="array" ref="E2:E27">_xlfn.ANCHORARRAY(A2)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
+      <c r="F2" s="3" t="str">
+        <f ca="1"/>
+        <v>Explain the situation.</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
+      <c r="F3" s="4" t="str">
+        <f ca="1"/>
+        <v>CGPA: 8.91 (8.91%); Class: First Class with Distinction; Awarded: 1 Gold Medal for academic performance in 1st and 2nd semesters;
+Scanned copies available on the OneDrive folder. No document is issued via DigiLocker, every documant in original is physically available with me.
+#Bachelor #Degree #Education #BTech #CGPA</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
+      <c r="F4" s="1" t="str">
+        <f ca="1"/>
+        <v>Scored 7.0 overall band with 6.5 in listening and 7.0 in all other sections. C1 level in CEFR.
+I have not taken One Skill Retake (OSR) in any of the sections and the above scores are the original scores.
+eTRF available in the shared OneDrive folder.
+#English #Language</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
+      <c r="F5" s="1" t="str">
+        <f ca="1"/>
+        <v>Score available in the shared OneDrive folder.
+Scored 3 in AWA, 135 in verbal, 158 in quant
+I won’t plan a retake unless we identify programs that require it or where a better score would clearly strengthen my chances.
+#GRE #Aptitude #Verbal #Quantitative #Analytical</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
+      <c r="F6" s="1" t="str">
+        <f ca="1"/>
+        <v>Courier of my documents received at APS office in Delhi on Saturday, 21 June 2025. 
+All documents I shared with APS are available in the shared OneDrive folder.
+#APS #Certificate</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f ca="1"/>
+        <v>Starting from level 0 from July 1, 2025, with Faster German A1 language course at BiG academy.
+Aiming to reach B1 level by Jan 31, 2025.
+#German #Language</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="F8" s="4" t="str">
+        <f ca="1"/>
+        <v>Drafts that I made are available in the shared OneDrive folder.
+Caution ⚠️: I have used ChatGPT to rephrase the initial SOP I made. I know this is highly dangerous. I will redraft my SOP without using ChatGPT and any other AI from now on.
+#SOP #Motivation #Intent</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>7</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f ca="1"/>
+        <v>I can start taking all the required vaccines from Aug 1, 2025 to Jan 31, 2026. I have taken COVISHIELD 3 doses, and have this certificate included in the OneDrive folder.
+Planning to take: 
+1.	MMR (Measles, Mumps, and Rubella)
+2.	TDAP (Tetanus, Diphtheria, Pertussis)
+3.	Varicella (Chickenpox Vaccine)
+4.	Meningitis
+5.	Hepatitis
+6.	Tuberculosis Test
+#Health #Immunisation #Vaccine #Prevention</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
+      </c>
+      <c r="F10">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>55</v>
+      <c r="F11">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
+      </c>
+      <c r="F12" t="str">
+        <f ca="1"/>
+        <v>Done with all the formalities related to request of LOR from college. Now, all that is pending is to submit a format and get signatures from professors at college.
+I can get two to three LORs from college, and one from my current workplace.
+#LOR</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -879,303 +998,699 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
+      </c>
+      <c r="F13">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
+      </c>
+      <c r="F14" t="str">
+        <f ca="1"/>
+        <v>I have heard that taking government money to use for my edu, and living expenses states indirectly that I am not independent and my visa extensions might get cancelled. So I want to reply on my edu loan and earnings alone.
+#Scholarship #Risk</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
+      </c>
+      <c r="F15" t="str">
+        <f ca="1"/>
+        <v>Yes, working with computers (programming, designing, simulations, calculations) is perfectly fine for me. 
+I prefer to avoid testing-based, material-heavy, or hazardous work environments. 
+I’ll soon begin shortlisting courses accordingly and share a few examples as you suggested</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
+      </c>
+      <c r="F16">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E17" s="3">
         <v>15</v>
+      </c>
+      <c r="F17" t="str">
+        <f ca="1"/>
+        <v>I need to be taking edu loan to cover for both my first and second year of education to be on a safer side, irrespective of the city, university and state rules. That is, 24 thousand EUR blocked account.</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="3">
         <v>16</v>
+      </c>
+      <c r="F18" t="str">
+        <f ca="1"/>
+        <v>Thinking about Expatrio</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" t="s">
         <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="3">
         <v>17</v>
+      </c>
+      <c r="F19">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="3">
         <v>18</v>
+      </c>
+      <c r="F20" t="str">
+        <f ca="1"/>
+        <v>TK</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="3">
         <v>19</v>
+      </c>
+      <c r="F21" t="str">
+        <f ca="1"/>
+        <v>TK</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>56</v>
+      <c r="F22" s="1" t="str">
+        <f ca="1"/>
+        <v>I prefer to stay as near as possible to both the cities and the university. 
+Aim is to not move place to place every now and then even if internship opportunities come provided that I do not miss any work opportunities.</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>28</v>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="3">
         <v>21</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>50</v>
+      <c r="F23" t="str">
+        <f ca="1"/>
+        <v>Want to bring as less luggage as possible. 
+Not a fan of food, I don't eat foods like pickels in India also. I am a non-vegetarian who prefers chicken and fish (bone less only). All vegan foods are also fine. I am adaptable to food.</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>28</v>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="3">
         <v>22</v>
+      </c>
+      <c r="F24" t="str">
+        <f ca="1"/>
+        <v>High on safety, low on budget, and good for transporting all my luggage. I don't mind if I have to have a transit stop: layover or stopover.</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>28</v>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
       </c>
       <c r="E25" s="3">
         <v>23</v>
+      </c>
+      <c r="F25">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
       </c>
       <c r="E26" s="3">
         <v>24</v>
+      </c>
+      <c r="F26">
+        <f ca="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
       </c>
       <c r="E27" s="3">
         <v>25</v>
       </c>
+      <c r="F27">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="G1:XFD3" xr:uid="{D63E02C6-6DDA-4376-AB92-4DD0716B2FA7}">
+  <dataValidations count="16">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="G1:XFD3" xr:uid="{45855791-9741-4DE7-8275-D61F6A81F546}">
       <formula1>1</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" promptTitle="NO NOT MODIFY" prompt="These cells are not to be modified." sqref="A1:F3" xr:uid="{51CB3701-2FA1-4B9E-BC2E-4B01E603B852}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" promptTitle="NO NOT MODIFY" prompt="These cells are not to be modified." sqref="A1:F3" xr:uid="{E2AAE9BA-A773-4663-B950-E046AE65A395}">
       <formula1>1</formula1>
       <formula2>32000</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A25:A1048576 A4 A10:A14 A20:A23 A16:A18" xr:uid="{F7834487-E1FC-4F4C-9C3B-BB8CA307FEA1}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A25:A1048576 A4 A20:A23 A16:A18 A7 A12:A14" xr:uid="{05E334D0-9EEE-4730-866E-DC4C7E8349F1}">
       <formula1>LEN(_xlfn.ANCHORARRAY(A5))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{A67BD127-AE52-4189-A11A-8B83A9BE82A7}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A3" xr:uid="{E271244C-F0E6-4275-B57D-897C46C0FA2B}">
       <formula1>LEN(_xlfn.ANCHORARRAY(A25))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A24" xr:uid="{31480ED3-4E7C-4096-8EF1-0E7B478516E1}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A24" xr:uid="{B5B65919-0981-48C7-B0BB-81ADA0066F94}">
       <formula1>LEN(_xlfn.ANCHORARRAY(A3))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{3EA88E57-6D36-45DA-839A-1B68FD93CC17}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{598E7940-5444-49C0-90F6-A91DA4385EBC}">
       <formula1>LEN(_xlfn.ANCHORARRAY(A6))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Not allowed" error="Do not modify these cells and do not leave them blank." promptTitle="Do not edit these cells" prompt="The values in these cells, in case edited, then the dashboard might get into issues." sqref="E3:E19 E20:E1048576" xr:uid="{B1701D25-FA0B-448B-AD97-163AF534E468}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Not allowed" error="Do not modify these cells and do not leave them blank." promptTitle="Do not edit these cells" prompt="The values in these cells, in case edited, then the dashboard might get into issues." sqref="E12:E1048576 E3:E11" xr:uid="{94231253-DE4C-4911-8E0F-0A013DDE287A}">
       <formula1>1</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A5:A8" xr:uid="{F8D1B4C6-B525-4027-BDD9-E16F38C0FDA1}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A15" xr:uid="{BD704F45-0B65-40FE-85F5-C0F5C95A5124}">
+      <formula1>LEN(_xlfn.ANCHORARRAY(A7))&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{92D4844E-F6F5-4FBA-A931-A2D2FFDEC233}">
+      <formula1>LEN(_xlfn.ANCHORARRAY(A20))&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A19" xr:uid="{0D1123F3-F56E-4837-84DF-DCF76554D322}">
       <formula1>LEN(_xlfn.ANCHORARRAY(A9))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A7:A8" xr:uid="{05AC813A-6422-4E6E-AA2F-D4DD66A725A8}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{790DC69A-E4D0-47B2-B524-14ED2E5C2C54}">
+      <formula1>LEN(_xlfn.ANCHORARRAY(A12))&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A7:A8" xr:uid="{DD697925-D008-400B-9660-5C5E9989698F}">
       <formula1>LEN(_xlfn.ANCHORARRAY(A17))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A15" xr:uid="{26AAB5CE-25B2-43D4-9FF0-F1554BF8CB26}">
-      <formula1>LEN(_xlfn.ANCHORARRAY(A7))&gt;0</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{AEF5A04D-4E73-46A2-A38A-9CADD75B7DD7}">
+      <formula1>LEN(_xlfn.ANCHORARRAY(A18))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{813423F6-7579-4331-B393-BAC109972CA8}">
-      <formula1>LEN(_xlfn.ANCHORARRAY(A20))&gt;0</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A5:A6" xr:uid="{25671253-681E-4B62-984D-85B336561B39}">
+      <formula1>LEN(_xlfn.ANCHORARRAY(A10))&gt;0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A19" xr:uid="{D8F59F64-F320-47F9-AA60-1365F4EB8B92}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A11" xr:uid="{7BBBBF77-0CFA-4FC8-856F-78838297ED20}">
       <formula1>LEN(_xlfn.ANCHORARRAY(A8))&gt;0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{3E295D18-772D-4425-AD56-35090E6BDAFD}">
+      <formula1>LEN(_xlfn.ANCHORARRAY(A12))&gt;0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F737A1-0A12-4709-9390-6370066959EF}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="41" style="6" customWidth="1"/>
+    <col min="3" max="3" width="96.33203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="B1:B27" ca="1">INDIRECT("Sheet1!b1:b" &amp; COUNTA(Sheet1!B:B))</f>
+        <v>Task name</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" cm="1">
+        <f t="array" ref="A2:A27">_xlfn.ANCHORARRAY(Sheet1!A2)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f ca="1"/>
+        <v>What is this task called?</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f ca="1"/>
+        <v>BTech transcripts</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f ca="1"/>
+        <v>IELTS Academic</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f ca="1"/>
+        <v>GRE General</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f ca="1"/>
+        <v>Akademische Prüfstelle (APS) Certificate</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f ca="1"/>
+        <v>German language skill</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f ca="1"/>
+        <v>Statement of purpose / letter of intent / motivation letter (SOP)</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f ca="1"/>
+        <v>Vaccines</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f ca="1"/>
+        <v>University shortlisting</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f ca="1"/>
+        <v>Europass CV</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f ca="1"/>
+        <v>Letters of recommendation (LOR)</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f ca="1"/>
+        <v>uni assist e.V.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f ca="1"/>
+        <v>Scholarship applications (not interested if makes problems with visa extentions)</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f ca="1"/>
+        <v>Program applications</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f ca="1"/>
+        <v>Program admission letters</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f ca="1"/>
+        <v>Edu loan (ICICI, Credila, Prodigy)</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f ca="1"/>
+        <v>Blocked account</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f ca="1"/>
+        <v>Visa</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f ca="1"/>
+        <v>Travel insurance (flight boarding to one day before university enrollment)</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f ca="1"/>
+        <v>Health insurance (starts from university enrollment date)</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <f ca="1"/>
+        <v>Accomodation applications</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="str">
+        <f ca="1"/>
+        <v>Packing</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f ca="1"/>
+        <v>Flights</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="str">
+        <f ca="1"/>
+        <v>Address registration</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="str">
+        <f ca="1"/>
+        <v>Radio tax</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <f ca="1"/>
+        <v>Residence permit</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" promptTitle="NO NOT MODIFY" prompt="These cells are not to be modified." sqref="C1:C3" xr:uid="{30E5B45B-0D3A-463A-AFD8-80FAE5CB6163}">
+      <formula1>1</formula1>
+      <formula2>32000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/big/status.xlsx
+++ b/big/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3fc1c9379bbc09f/Documents/apps/github/resume/big/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E6ED13-890C-41A5-A4CF-6DDE58CEB4D8}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F068C3CE-06B0-4948-8480-AFFF7128483A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
+    <workbookView minimized="1" xWindow="3480" yWindow="3480" windowWidth="7500" windowHeight="6000" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -118,9 +118,6 @@
     <t>Courier reached APS Delhi</t>
   </si>
   <si>
-    <t>Started and processing</t>
-  </si>
-  <si>
     <t>Europass CV</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
   </si>
   <si>
     <t>Statement of purpose / letter of intent / motivation letter (SOP)</t>
-  </si>
-  <si>
-    <t>Started and processing, might complete by Aug 2, 2025</t>
   </si>
   <si>
     <t>Courier of my documents received at APS office in Delhi on Saturday, 21 June 2025. 
@@ -297,6 +291,12 @@
     <t>Yes, working with computers (programming, designing, simulations, calculations) is perfectly fine for me. 
 I prefer to avoid testing-based, material-heavy, or hazardous work environments. 
 I’ll soon begin shortlisting courses accordingly and share a few examples as you suggested</t>
+  </si>
+  <si>
+    <t>Started: 2025-06-23 and processing, estimated completion: 2025-08-02</t>
+  </si>
+  <si>
+    <t>Started: 2025-07-01 and processing, estimated completion: 2025-09-30</t>
   </si>
 </sst>
 </file>
@@ -349,21 +349,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,81 +697,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBA9940-D2A4-4BCE-8AC4-F9C7FE04C81D}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="180.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="65" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="180.5546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="str" cm="1">
+      <c r="F1" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="F1:F27" ca="1">INDIRECT("Sheet2!C1:C" &amp; COUNTA(B:B)-0)</f>
         <v>Brief block text</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" cm="1">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" cm="1">
         <f t="array" ref="A2:A27">_xlfn.SEQUENCE(COUNTA(B:B)-1,1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" cm="1">
+      <c r="E2" s="4" cm="1">
         <f t="array" ref="E2:E27">_xlfn.ANCHORARRAY(A2)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="4" t="str">
         <f ca="1"/>
         <v>Explain the situation.</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="5" t="str">
         <f ca="1"/>
         <v>CGPA: 8.91 (8.91%); Class: First Class with Distinction; Awarded: 1 Gold Medal for academic performance in 1st and 2nd semesters;
 Scanned copies available on the OneDrive folder. No document is issued via DigiLocker, every documant in original is physically available with me.
@@ -783,22 +780,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="5" t="str">
         <f ca="1"/>
         <v>Scored 7.0 overall band with 6.5 in listening and 7.0 in all other sections. C1 level in CEFR.
 I have not taken One Skill Retake (OSR) in any of the sections and the above scores are the original scores.
@@ -807,22 +804,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="5" t="str">
         <f ca="1"/>
         <v>Score available in the shared OneDrive folder.
 Scored 3 in AWA, 135 in verbal, 158 in quant
@@ -831,22 +828,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="5" t="str">
         <f ca="1"/>
         <v>Courier of my documents received at APS office in Delhi on Saturday, 21 June 2025. 
 All documents I shared with APS are available in the shared OneDrive folder.
@@ -854,22 +851,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="5" t="str">
         <f ca="1"/>
         <v>Starting from level 0 from July 1, 2025, with Faster German A1 language course at BiG academy.
 Aiming to reach B1 level by Jan 31, 2025.
@@ -877,45 +874,45 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="F8" s="5" t="str">
         <f ca="1"/>
         <v>Drafts that I made are available in the shared OneDrive folder.
 Caution ⚠️: I have used ChatGPT to rephrase the initial SOP I made. I know this is highly dangerous. I will redraft my SOP without using ChatGPT and any other AI from now on.
 #SOP #Motivation #Intent</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="F9" s="5" t="str">
         <f ca="1"/>
         <v>I can start taking all the required vaccines from Aug 1, 2025 to Jan 31, 2026. I have taken COVISHIELD 3 doses, and have this certificate included in the OneDrive folder.
 Planning to take: 
@@ -929,131 +926,131 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="5" t="str">
         <f ca="1"/>
         <v>Done with all the formalities related to request of LOR from college. Now, all that is pending is to submit a format and get signatures from professors at college.
 I can get two to three LORs from college, and one from my current workplace.
 #LOR</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="5" t="str">
         <f ca="1"/>
         <v>I have heard that taking government money to use for my edu, and living expenses states indirectly that I am not independent and my visa extensions might get cancelled. So I want to reply on my edu loan and earnings alone.
 #Scholarship #Risk</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="5" t="str">
         <f ca="1"/>
         <v>Yes, working with computers (programming, designing, simulations, calculations) is perfectly fine for me. 
 I prefer to avoid testing-based, material-heavy, or hazardous work environments. 
@@ -1061,255 +1058,255 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>14</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f ca="1"/>
+        <v>I need to be taking edu loan to cover for both my first and second year of education to be on a safer side, irrespective of the city, university and state rules. That is, 24 thousand EUR blocked account.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f ca="1"/>
+        <v>Thinking about Expatrio</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3">
-        <v>15</v>
-      </c>
-      <c r="F17" t="str">
-        <f ca="1"/>
-        <v>I need to be taking edu loan to cover for both my first and second year of education to be on a safer side, irrespective of the city, university and state rules. That is, 24 thousand EUR blocked account.</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3">
-        <v>16</v>
-      </c>
-      <c r="F18" t="str">
-        <f ca="1"/>
-        <v>Thinking about Expatrio</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F19" s="5">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3">
-        <v>17</v>
-      </c>
-      <c r="F19">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="E20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F20" s="5" t="str">
+        <f ca="1"/>
+        <v>TK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3">
-        <v>18</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="E21" s="4">
+        <v>19</v>
+      </c>
+      <c r="F21" s="5" t="str">
         <f ca="1"/>
         <v>TK</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3">
-        <v>19</v>
-      </c>
-      <c r="F21" t="str">
-        <f ca="1"/>
-        <v>TK</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="E22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="str">
+      <c r="F22" s="5" t="str">
         <f ca="1"/>
         <v>I prefer to stay as near as possible to both the cities and the university. 
 Aim is to not move place to place every now and then even if internship opportunities come provided that I do not miss any work opportunities.</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>21</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="5" t="str">
         <f ca="1"/>
         <v>Want to bring as less luggage as possible. 
 Not a fan of food, I don't eat foods like pickels in India also. I am a non-vegetarian who prefers chicken and fish (bone less only). All vegan foods are also fine. I am adaptable to food.</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>22</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="5" t="str">
         <f ca="1"/>
         <v>High on safety, low on budget, and good for transporting all my luggage. I don't mind if I have to have a transit stop: layover or stopover.</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="3">
-        <v>23</v>
-      </c>
-      <c r="F25">
+      <c r="E26" s="4">
+        <v>24</v>
+      </c>
+      <c r="F26" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3">
-        <v>24</v>
-      </c>
-      <c r="F26">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="E27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3">
-        <v>25</v>
-      </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1376,312 +1373,312 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F737A1-0A12-4709-9390-6370066959EF}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="41" style="6" customWidth="1"/>
-    <col min="3" max="3" width="96.33203125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="41" style="2" customWidth="1"/>
+    <col min="3" max="3" width="96.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="str" cm="1">
+      <c r="B1" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B1:B27" ca="1">INDIRECT("Sheet1!b1:b" &amp; COUNTA(Sheet1!B:B))</f>
         <v>Task name</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" cm="1">
+      <c r="A2" s="2" cm="1">
         <f t="array" ref="A2:A27">_xlfn.ANCHORARRAY(Sheet1!A2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="2" t="str">
         <f ca="1"/>
         <v>What is this task called?</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="2" t="str">
         <f ca="1"/>
         <v>BTech transcripts</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>49</v>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="2" t="str">
         <f ca="1"/>
         <v>IELTS Academic</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f ca="1"/>
+        <v>GRE General</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f ca="1"/>
+        <v>Akademische Prüfstelle (APS) Certificate</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f ca="1"/>
+        <v>German language skill</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f ca="1"/>
+        <v>Statement of purpose / letter of intent / motivation letter (SOP)</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f ca="1"/>
+        <v>Vaccines</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f ca="1"/>
+        <v>University shortlisting</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f ca="1"/>
+        <v>Europass CV</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f ca="1"/>
+        <v>Letters of recommendation (LOR)</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f ca="1"/>
+        <v>uni assist e.V.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f ca="1"/>
+        <v>Scholarship applications (not interested if makes problems with visa extentions)</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f ca="1"/>
+        <v>Program applications</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="str">
-        <f ca="1"/>
-        <v>GRE General</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="str">
-        <f ca="1"/>
-        <v>Akademische Prüfstelle (APS) Certificate</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="str">
-        <f ca="1"/>
-        <v>German language skill</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="str">
-        <f ca="1"/>
-        <v>Statement of purpose / letter of intent / motivation letter (SOP)</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="str">
-        <f ca="1"/>
-        <v>Vaccines</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="str">
-        <f ca="1"/>
-        <v>University shortlisting</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="str">
-        <f ca="1"/>
-        <v>Europass CV</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="str">
-        <f ca="1"/>
-        <v>Letters of recommendation (LOR)</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f ca="1"/>
+        <v>Program admission letters</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f ca="1"/>
+        <v>Edu loan (ICICI, Credila, Prodigy)</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="str">
-        <f ca="1"/>
-        <v>uni assist e.V.</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="str">
-        <f ca="1"/>
-        <v>Scholarship applications (not interested if makes problems with visa extentions)</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f ca="1"/>
+        <v>Blocked account</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="str">
-        <f ca="1"/>
-        <v>Program applications</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="str">
-        <f ca="1"/>
-        <v>Program admission letters</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="str">
-        <f ca="1"/>
-        <v>Edu loan (ICICI, Credila, Prodigy)</v>
-      </c>
-      <c r="C17" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f ca="1"/>
+        <v>Visa</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f ca="1"/>
+        <v>Travel insurance (flight boarding to one day before university enrollment)</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6" t="str">
-        <f ca="1"/>
-        <v>Blocked account</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f ca="1"/>
+        <v>Health insurance (starts from university enrollment date)</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f ca="1"/>
+        <v>Accomodation applications</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="str">
-        <f ca="1"/>
-        <v>Visa</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="str">
-        <f ca="1"/>
-        <v>Travel insurance (flight boarding to one day before university enrollment)</v>
-      </c>
-      <c r="C20" s="6" t="s">
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f ca="1"/>
+        <v>Packing</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="str">
-        <f ca="1"/>
-        <v>Health insurance (starts from university enrollment date)</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6" t="str">
-        <f ca="1"/>
-        <v>Accomodation applications</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f ca="1"/>
+        <v>Flights</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6" t="str">
-        <f ca="1"/>
-        <v>Packing</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6" t="str">
-        <f ca="1"/>
-        <v>Flights</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" s="2" t="str">
         <f ca="1"/>
         <v>Address registration</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="2" t="str">
         <f ca="1"/>
         <v>Radio tax</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B27" s="2" t="str">
         <f ca="1"/>
         <v>Residence permit</v>
       </c>

--- a/big/status.xlsx
+++ b/big/status.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3fc1c9379bbc09f/Documents/apps/github/resume/big/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F068C3CE-06B0-4948-8480-AFFF7128483A}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52085604-50FE-4BF3-B887-47DFCC83F694}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3480" yWindow="3480" windowWidth="7500" windowHeight="6000" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -358,8 +359,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -697,19 +698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBA9940-D2A4-4BCE-8AC4-F9C7FE04C81D}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="65" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="180.5546875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="180.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -760,19 +760,19 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" t="str">
         <f ca="1"/>
         <v>CGPA: 8.91 (8.91%); Class: First Class with Distinction; Awarded: 1 Gold Medal for academic performance in 1st and 2nd semesters;
 Scanned copies available on the OneDrive folder. No document is issued via DigiLocker, every documant in original is physically available with me.
@@ -783,19 +783,19 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" t="str">
         <f ca="1"/>
         <v>Scored 7.0 overall band with 6.5 in listening and 7.0 in all other sections. C1 level in CEFR.
 I have not taken One Skill Retake (OSR) in any of the sections and the above scores are the original scores.
@@ -807,19 +807,19 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" t="str">
         <f ca="1"/>
         <v>Score available in the shared OneDrive folder.
 Scored 3 in AWA, 135 in verbal, 158 in quant
@@ -831,19 +831,19 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" t="str">
         <f ca="1"/>
         <v>Courier of my documents received at APS office in Delhi on Saturday, 21 June 2025. 
 All documents I shared with APS are available in the shared OneDrive folder.
@@ -854,19 +854,19 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" t="str">
         <f ca="1"/>
         <v>Starting from level 0 from July 1, 2025, with Faster German A1 language course at BiG academy.
 Aiming to reach B1 level by Jan 31, 2025.
@@ -877,19 +877,19 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" t="str">
         <f ca="1"/>
         <v>Drafts that I made are available in the shared OneDrive folder.
 Caution ⚠️: I have used ChatGPT to rephrase the initial SOP I made. I know this is highly dangerous. I will redraft my SOP without using ChatGPT and any other AI from now on.
@@ -900,19 +900,19 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" t="str">
         <f ca="1"/>
         <v>I can start taking all the required vaccines from Aug 1, 2025 to Jan 31, 2026. I have taken COVISHIELD 3 doses, and have this certificate included in the OneDrive folder.
 Planning to take: 
@@ -929,19 +929,19 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="4">
         <v>8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -950,19 +950,19 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="4">
         <v>9</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -971,19 +971,19 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" t="str">
         <f ca="1"/>
         <v>Done with all the formalities related to request of LOR from college. Now, all that is pending is to submit a format and get signatures from professors at college.
 I can get two to three LORs from college, and one from my current workplace.
@@ -995,19 +995,19 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="4">
         <v>11</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1016,19 +1016,19 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" t="str">
         <f ca="1"/>
         <v>I have heard that taking government money to use for my edu, and living expenses states indirectly that I am not independent and my visa extensions might get cancelled. So I want to reply on my edu loan and earnings alone.
 #Scholarship #Risk</v>
@@ -1038,19 +1038,19 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="4">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" t="str">
         <f ca="1"/>
         <v>Yes, working with computers (programming, designing, simulations, calculations) is perfectly fine for me. 
 I prefer to avoid testing-based, material-heavy, or hazardous work environments. 
@@ -1061,19 +1061,19 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="4">
         <v>14</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1082,19 +1082,19 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" t="str">
         <f ca="1"/>
         <v>I need to be taking edu loan to cover for both my first and second year of education to be on a safer side, irrespective of the city, university and state rules. That is, 24 thousand EUR blocked account.</v>
       </c>
@@ -1103,19 +1103,19 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="4">
         <v>16</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" t="str">
         <f ca="1"/>
         <v>Thinking about Expatrio</v>
       </c>
@@ -1124,19 +1124,19 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="4">
         <v>17</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1145,19 +1145,19 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="4">
         <v>18</v>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" t="str">
         <f ca="1"/>
         <v>TK</v>
       </c>
@@ -1166,19 +1166,19 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="4">
         <v>19</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" t="str">
         <f ca="1"/>
         <v>TK</v>
       </c>
@@ -1187,19 +1187,19 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="4">
         <v>20</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" t="str">
         <f ca="1"/>
         <v>I prefer to stay as near as possible to both the cities and the university. 
 Aim is to not move place to place every now and then even if internship opportunities come provided that I do not miss any work opportunities.</v>
@@ -1209,19 +1209,19 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4">
         <v>21</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" t="str">
         <f ca="1"/>
         <v>Want to bring as less luggage as possible. 
 Not a fan of food, I don't eat foods like pickels in India also. I am a non-vegetarian who prefers chicken and fish (bone less only). All vegan foods are also fine. I am adaptable to food.</v>
@@ -1231,19 +1231,19 @@
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="4">
         <v>22</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" t="str">
         <f ca="1"/>
         <v>High on safety, low on budget, and good for transporting all my luggage. I don't mind if I have to have a transit stop: layover or stopover.</v>
       </c>
@@ -1252,19 +1252,19 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="4">
         <v>23</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1273,19 +1273,19 @@
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="4">
         <v>24</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1294,19 +1294,19 @@
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="4">
         <v>25</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -1366,6 +1366,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1684,12 +1685,36 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" promptTitle="NO NOT MODIFY" prompt="These cells are not to be modified." sqref="C1:C3" xr:uid="{30E5B45B-0D3A-463A-AFD8-80FAE5CB6163}">
       <formula1>1</formula1>
       <formula2>32000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA82E75-C64D-4F31-BD66-0654DD056BC0}">
+  <dimension ref="D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="5">
+        <v>45844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/big/status.xlsx
+++ b/big/status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3fc1c9379bbc09f/Documents/apps/github/resume/big/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52085604-50FE-4BF3-B887-47DFCC83F694}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="8_{741BB688-ABD6-4799-8B7E-4926E7FDCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC65245-0D7C-4FD0-AA10-E70061610BE4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
+    <workbookView minimized="1" xWindow="3828" yWindow="3828" windowWidth="7500" windowHeight="6000" xr2:uid="{2FCDE167-59AD-427B-BC4F-8F89569DA114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -377,6 +377,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBA9940-D2A4-4BCE-8AC4-F9C7FE04C81D}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +713,7 @@
     <col min="3" max="3" width="72.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="180.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
